--- a/user-data/forgotten-crisis/forgotten-crisis.xlsx
+++ b/user-data/forgotten-crisis/forgotten-crisis.xlsx
@@ -33,6 +33,18 @@
     <t xml:space="preserve">value-2</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahrawi refugee crisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 or over</t>
+  </si>
+  <si>
     <t xml:space="preserve">BD</t>
   </si>
   <si>
@@ -57,6 +69,39 @@
     <t xml:space="preserve">1 or over</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal armed conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 or over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armed conflict</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD</t>
   </si>
   <si>
@@ -66,45 +111,6 @@
     <t xml:space="preserve">Affected by humanitarian crisis caused by LRA</t>
   </si>
   <si>
-    <t xml:space="preserve">3 or over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal armed conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armed conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 or over</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahrawi refugee crisis</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
@@ -144,21 +150,21 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict affected population</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict affected population</t>
-  </si>
-  <si>
     <t xml:space="preserve">KE</t>
   </si>
   <si>
@@ -168,6 +174,90 @@
     <t xml:space="preserve">Somali refugee crisis</t>
   </si>
   <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Rakhine State and Kachin and Shan State conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutanese refugees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict, IDP crisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindanao crisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chechnya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
@@ -177,84 +267,6 @@
     <t xml:space="preserve">Returning IDPs</t>
   </si>
   <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Rakhine State and Kachin and Shan State conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutanese refugees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindanao crisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict, IDP crisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russian Federation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chechnya</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
@@ -264,16 +276,16 @@
     <t xml:space="preserve">Darfur, refugees, transitional areas, East Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">TH</t>
@@ -283,18 +295,6 @@
   </si>
   <si>
     <t xml:space="preserve">Burmese border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">UG</t>
@@ -805,7 +805,7 @@
         <v>2015</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -825,7 +825,7 @@
         <v>2015</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -845,7 +845,7 @@
         <v>2015</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -858,14 +858,12 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
         <v>2015</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -873,91 +871,93 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="n">
         <v>2015</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="n">
         <v>2015</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" t="n">
         <v>2015</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>2015</v>
@@ -966,18 +966,18 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11" t="n">
         <v>2015</v>
@@ -986,17 +986,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12"/>
       <c r="D12" t="n">
         <v>2015</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1019,10 +1021,10 @@
         <v>2015</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1037,7 +1039,7 @@
         <v>2015</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1060,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1070,48 +1072,46 @@
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
+      <c r="C16"/>
       <c r="D16" t="n">
         <v>2015</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
       <c r="D17" t="n">
         <v>2015</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
       <c r="D18" t="n">
         <v>2015</v>
@@ -1120,18 +1120,18 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
         <v>2015</v>
@@ -1140,64 +1140,64 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
         <v>2015</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
       <c r="D21" t="n">
         <v>2015</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
       <c r="D22" t="n">
         <v>2015</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1211,34 +1211,36 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
         <v>2015</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24"/>
       <c r="D24" t="n">
         <v>2015</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1248,34 +1250,32 @@
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
+      <c r="C25"/>
       <c r="D25" t="n">
         <v>2015</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
       <c r="D26" t="n">
         <v>2015</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
       <c r="D27" t="n">
         <v>2015</v>
@@ -1298,24 +1298,22 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
+      <c r="C28"/>
       <c r="D28" t="n">
         <v>2015</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1323,12 +1321,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29"/>
       <c r="D29" t="n">
         <v>2015</v>
       </c>
@@ -1336,27 +1336,27 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
       <c r="D30" t="n">
         <v>2015</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
@@ -1366,25 +1366,23 @@
       <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
+      <c r="C31"/>
       <c r="D31" t="n">
         <v>2015</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
       </c>
       <c r="C32"/>
       <c r="D32" t="n">
@@ -1394,22 +1392,24 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33"/>
       <c r="D33" t="n">
         <v>2015</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
         <v>13</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -1443,7 +1443,7 @@
         <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>2015</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
@@ -1472,7 +1472,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/forgotten-crisis/forgotten-crisis.xlsx
+++ b/user-data/forgotten-crisis/forgotten-crisis.xlsx
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 53</t>
+    <t xml:space="preserve">Source: 54</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 4</t>

--- a/user-data/forgotten-crisis/forgotten-crisis.xlsx
+++ b/user-data/forgotten-crisis/forgotten-crisis.xlsx
@@ -334,7 +334,7 @@
     <t xml:space="preserve">Units of measure: index</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 54</t>
+    <t xml:space="preserve">Source: 53</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 4</t>
